--- a/resources/experiment 1/metrics/MAPE/incidence/Ceguera (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Ceguera (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402161816548996.3</v>
+        <v>402161816548996.6</v>
       </c>
       <c r="C2" t="n">
-        <v>402161816548996.3</v>
+        <v>402161816548996.4</v>
       </c>
       <c r="D2" t="n">
-        <v>402161816548996.3</v>
+        <v>402161816548996.4</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6361206887665.89</v>
+        <v>4397881326258.559</v>
       </c>
       <c r="C3" t="n">
-        <v>6361206887665.89</v>
+        <v>4651605248927.317</v>
       </c>
       <c r="D3" t="n">
-        <v>6361206887665.89</v>
+        <v>9134061216075.455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27112819232986.5</v>
+        <v>4228732044479.386</v>
       </c>
       <c r="C4" t="n">
-        <v>27112819232986.51</v>
+        <v>5638309392639.163</v>
       </c>
       <c r="D4" t="n">
-        <v>27112819232986.51</v>
+        <v>5550210808379.242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44993708953260.65</v>
+        <v>20627398519030.89</v>
       </c>
       <c r="C5" t="n">
-        <v>44993708953260.65</v>
+        <v>21724394410830.42</v>
       </c>
       <c r="D5" t="n">
-        <v>44993708953260.65</v>
+        <v>62923131546397.74</v>
       </c>
     </row>
   </sheetData>
